--- a/xlsx-templates/yongren.xlsx
+++ b/xlsx-templates/yongren.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangchen/Desktop/Labs/oa/backend/xlsx-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C02C31-449D-974C-A884-0A48B862E419}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="51200" yWindow="-5200" windowWidth="21600" windowHeight="37940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$F$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$F$12</definedName>
   </definedNames>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -170,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -204,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -227,11 +228,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,10 +332,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -258,6 +383,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -525,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,14 +670,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -577,71 +705,101 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B8:F8"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B8:F8"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
